--- a/接口文档/商品api/类目接口_app.xlsx
+++ b/接口文档/商品api/类目接口_app.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="9360" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>商品类目接口
 版本：1.0
@@ -55,7 +55,7 @@
     <t>接口地址：</t>
   </si>
   <si>
-    <t>http://192.168.1.131/api/catalog/catalog</t>
+    <t>http://192.168.1.131/api/catalog/catalog/nologin</t>
   </si>
   <si>
     <t>http请求方式：</t>
@@ -89,6 +89,2508 @@
   </si>
   <si>
     <t>响应参数</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109114434011"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"pid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109114351007"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"七分牛"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"imgUrl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sort"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"createdAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1478663074715</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109114434012"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"5分牛"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109114434013"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"9分牛仔"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109114434014"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"超短"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109114516015"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"pid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109114434011"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"5.5分"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"createdAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1478663116845</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109114516016"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"5.1分"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109114516017"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"5.3分"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109114516018"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"男鞋"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109114516019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"女鞋"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109150935001"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"pid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"-1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"aaaaa"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sort"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"createdAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1478675375280</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109150939002"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"bbbb"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sort"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"createdAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1478675379243</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109150947004"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"pid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109150935001"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"a11"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sort"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"createdAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1478675387865</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109152920010"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"pid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109150939002"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"b1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sort"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"createdAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1478676560463</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109152920011"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"b2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sort"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109152920012"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"b3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sort"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109153031013"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"pid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109152920011"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"b212"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"imgUrl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"0/20161109/110_1478684186708.jpg"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sort"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"createdAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1478676631277</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109163219014"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"b222"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sort"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"createdAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1478680339198</t>
+    </r>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
@@ -96,12 +2598,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +2665,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -171,21 +2734,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,69 +2750,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,6 +2765,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -285,14 +2787,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +2796,13 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -313,6 +2815,34 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF92278F"/>
+      <name val="Monaco"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF3AB54A"/>
+      <name val="Monaco"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFF1592A"/>
+      <name val="Monaco"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF25AAE2"/>
+      <name val="Monaco"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -331,6 +2861,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,37 +2927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +2945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +2963,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +2987,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,73 +3035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,17 +3169,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +3189,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,32 +3234,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,15 +3266,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,10 +3274,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,16 +3286,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,116 +3305,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -1607,10 +4137,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1710,286 +4240,715 @@
       <c r="D9" s="18"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" ht="13.5" spans="1:2">
       <c r="A10" s="13"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="21" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="13.5" spans="1:5">
       <c r="A15" s="22"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="21"/>
+      <c r="B16" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="21"/>
+      <c r="B18" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="21"/>
+      <c r="B20" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E20" s="25"/>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B21" s="21"/>
+      <c r="B21" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="E21" s="25"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="21"/>
+      <c r="B22" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="E22" s="25"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B23" s="21"/>
+      <c r="B23" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="2:2">
-      <c r="B24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="21"/>
+      <c r="B25" s="21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="21"/>
+      <c r="B26" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="21"/>
+      <c r="B27" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="21"/>
+      <c r="B28" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="21"/>
+      <c r="B29" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="21"/>
+      <c r="B30" s="21" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="21"/>
+      <c r="B31" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="21"/>
+      <c r="B32" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="21"/>
+      <c r="B33" s="21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="21"/>
+      <c r="B34" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="21"/>
+      <c r="B36" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="21"/>
+      <c r="B37" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="21"/>
+      <c r="B38" s="21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="21"/>
+      <c r="B39" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="21"/>
+      <c r="B40" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="21"/>
+      <c r="B41" s="21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="21"/>
+      <c r="B43" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="21"/>
+      <c r="B44" s="21" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="21"/>
+      <c r="B45" s="21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="21"/>
+      <c r="B46" s="21" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="21"/>
+      <c r="B47" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="21"/>
+      <c r="B48" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="21"/>
+      <c r="B49" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="21"/>
+      <c r="B50" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="21"/>
+      <c r="B51" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="21"/>
+      <c r="B52" s="21" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="21"/>
+      <c r="B53" s="21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="21"/>
+      <c r="B54" s="21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="21"/>
+      <c r="B55" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="21"/>
+      <c r="B56" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="21"/>
+      <c r="B57" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="21"/>
+      <c r="B58" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="21"/>
+      <c r="B59" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="21"/>
+      <c r="B60" s="21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="21"/>
+      <c r="B61" s="21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="21"/>
+      <c r="B62" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="21"/>
+      <c r="B63" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="21"/>
+      <c r="B64" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="21"/>
+      <c r="B65" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="21"/>
+      <c r="B66" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="21"/>
+      <c r="B67" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="21"/>
+      <c r="B68" s="21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="21"/>
+      <c r="B69" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="21"/>
+      <c r="B70" s="21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="21"/>
+      <c r="B71" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="21"/>
+      <c r="B72" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="21"/>
+      <c r="B73" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="21"/>
+      <c r="B74" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="21"/>
+      <c r="B75" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="21"/>
+      <c r="B76" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="21"/>
+      <c r="B77" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="21"/>
+      <c r="B78" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="21"/>
+      <c r="B79" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="21"/>
+      <c r="B80" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="21"/>
+      <c r="B81" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="21"/>
+      <c r="B82" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="21"/>
+      <c r="B83" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="21"/>
+      <c r="B84" s="21" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="21"/>
+      <c r="B85" s="21" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="21"/>
+      <c r="B86" s="21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="21"/>
+      <c r="B87" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="21"/>
+      <c r="B88" s="21" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="21"/>
+      <c r="B89" s="21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="21"/>
+      <c r="B90" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="21"/>
+      <c r="B91" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="21"/>
+      <c r="B92" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="21"/>
+      <c r="B93" s="21" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="21"/>
+      <c r="B94" s="21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="21"/>
+      <c r="B95" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="21"/>
+      <c r="B96" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="21" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2003,7 +4962,7 @@
     <mergeCell ref="A6:A15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.131/api/catalog/catalog" tooltip="http://192.168.1.131/api/catalog/catalog"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.131/api/catalog/catalog/nologin" tooltip="http://192.168.1.131/api/catalog/catalog/nologin"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
